--- a/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -475,13 +477,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="8.71428571428571" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="6.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
@@ -509,6 +511,7 @@
     </row>
     <row r="2" spans="1:7" ht="12.75"/>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
@@ -486,7 +486,7 @@
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
@@ -477,16 +477,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.EmptyList.verified.xlsx
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -509,7 +509,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75"/>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
